--- a/out.xlsx
+++ b/out.xlsx
@@ -38,6 +38,12 @@
     <t xml:space="preserve">Відношення узгодженості</t>
   </si>
   <si>
+    <t xml:space="preserve">Ітераційний алгоритм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точне значеня (MathCad)</t>
+  </si>
+  <si>
     <t xml:space="preserve">E1</t>
   </si>
   <si>
@@ -53,12 +59,33 @@
     <t xml:space="preserve">A4</t>
   </si>
   <si>
+    <t xml:space="preserve">(Wi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832</t>
+  </si>
+  <si>
     <t xml:space="preserve">ІУ</t>
   </si>
   <si>
     <t xml:space="preserve">М(ІУ), n = 4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0798</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sum</t>
   </si>
   <si>
@@ -74,7 +101,13 @@
     <t xml:space="preserve">e^T [A]^k e</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">e^T * AW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A*W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A^1</t>
   </si>
   <si>
     <t xml:space="preserve">W1</t>
@@ -83,6 +116,9 @@
     <t xml:space="preserve">k=1</t>
   </si>
   <si>
+    <t xml:space="preserve">A^2</t>
+  </si>
+  <si>
     <t xml:space="preserve">W2</t>
   </si>
   <si>
@@ -95,6 +131,9 @@
     <t xml:space="preserve">k=2</t>
   </si>
   <si>
+    <t xml:space="preserve">A^3</t>
+  </si>
+  <si>
     <t xml:space="preserve">W3</t>
   </si>
   <si>
@@ -102,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">k=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A^4</t>
   </si>
   <si>
     <t xml:space="preserve">W4</t>
@@ -196,30 +238,6 @@
     <font/>
     <font/>
     <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
     <font>
       <b/>
     </font>
@@ -235,6 +253,177 @@
     <font>
       <b/>
     </font>
+    <font/>
+    <font/>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font>
+      <b/>
+    </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
     <font>
       <b/>
     </font>
@@ -247,219 +436,6 @@
     <font>
       <b/>
     </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills>
     <fill>
@@ -654,6 +630,44 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -661,6 +675,272 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -2098,7 +2378,7 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center"/>
@@ -2119,7 +2399,7 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center"/>
@@ -2140,7 +2420,7 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center"/>
@@ -2161,7 +2441,7 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center"/>
@@ -2527,6 +2807,120 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="188" fillId="189" borderId="188" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="189" fillId="190" borderId="189" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="190" fillId="191" borderId="190" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="194" fillId="195" borderId="194" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="195" fillId="196" borderId="195" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="196" fillId="197" borderId="196" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2815,10 +3209,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2840,33 +3237,51 @@
       <c r="J1" t="s" s="64">
         <v>3</v>
       </c>
+      <c r="L1" s="197"/>
+      <c r="M1" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s" s="199">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s" s="200">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="44"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="58"/>
+      <c r="H2" t="s" s="51">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s" s="58">
+        <v>12</v>
+      </c>
       <c r="J2" s="65"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="204"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" t="s" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
@@ -2889,17 +3304,27 @@
       <c r="I3" s="59">
         <v>4.32</v>
       </c>
-      <c r="J3" s="66">
-        <v>0.119</v>
+      <c r="J3" t="s" s="66">
+        <v>13</v>
+      </c>
+      <c r="L3" s="205"/>
+      <c r="M3" s="206">
+        <v>0.512</v>
+      </c>
+      <c r="N3" s="207">
+        <v>0.505</v>
+      </c>
+      <c r="O3" t="s" s="208">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" t="s" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="18">
-        <v>0.3333333333333333</v>
+        <v>0.333</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
@@ -2917,19 +3342,29 @@
         <v>0.292</v>
       </c>
       <c r="I4" t="s" s="60">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s" s="67">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="L4" s="209"/>
+      <c r="M4" s="210">
+        <v>0.292</v>
+      </c>
+      <c r="N4" s="211">
+        <v>0.3</v>
+      </c>
+      <c r="O4" t="s" s="212">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" t="s" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="19">
-        <v>0.3333333333333333</v>
+        <v>0.333</v>
       </c>
       <c r="D5" s="26">
         <v>0.25</v>
@@ -2951,15 +3386,25 @@
       </c>
       <c r="J5" s="68">
         <v>0.9</v>
+      </c>
+      <c r="L5" s="213"/>
+      <c r="M5" s="214">
+        <v>0.146</v>
+      </c>
+      <c r="N5" s="215">
+        <v>0.147</v>
+      </c>
+      <c r="O5" t="s" s="216">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
       <c r="B6" t="s" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="20">
-        <v>0.14285714285714285</v>
+        <v>0.143</v>
       </c>
       <c r="D6" s="27">
         <v>0.2</v>
@@ -2978,13 +3423,23 @@
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="69"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="218">
+        <v>0.0499</v>
+      </c>
+      <c r="N6" s="219">
+        <v>0.0485</v>
+      </c>
+      <c r="O6" t="s" s="220">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" s="21">
         <v>1.81</v>
@@ -3004,10 +3459,22 @@
       <c r="H7" s="56"/>
       <c r="I7" s="63"/>
       <c r="J7" s="70"/>
+      <c r="L7" t="s" s="221">
+        <v>12</v>
+      </c>
+      <c r="M7" s="222">
+        <v>4.32</v>
+      </c>
+      <c r="N7" s="223">
+        <v>4.33</v>
+      </c>
+      <c r="O7" s="224">
+        <v>4.32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" s="71">
         <v>1</v>
@@ -3022,23 +3489,35 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="J12" t="s" s="195">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s" s="190">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="J13" s="196">
+        <v>4.33</v>
+      </c>
+      <c r="K13" s="191">
+        <v>2.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" s="75">
         <v>1</v>
@@ -3060,11 +3539,14 @@
       </c>
       <c r="I14" s="96">
         <v>0.432</v>
+      </c>
+      <c r="K14" s="192">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="79">
-        <v>0.3333333333333333</v>
+        <v>0.333</v>
       </c>
       <c r="C15" s="80">
         <v>1</v>
@@ -3080,11 +3562,14 @@
       </c>
       <c r="I15" s="97">
         <v>0.318</v>
+      </c>
+      <c r="K15" s="193">
+        <v>0.633</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="83">
-        <v>0.3333333333333333</v>
+        <v>0.333</v>
       </c>
       <c r="C16" s="84">
         <v>0.25</v>
@@ -3100,11 +3585,14 @@
       </c>
       <c r="I16" s="98">
         <v>0.203</v>
+      </c>
+      <c r="K16" s="194">
+        <v>0.21</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="87">
-        <v>0.14285714285714285</v>
+        <v>0.143</v>
       </c>
       <c r="C17" s="88">
         <v>0.2</v>
@@ -3124,21 +3612,21 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19" s="100">
         <v>4</v>
@@ -3164,7 +3652,7 @@
       <c r="J19" s="125">
         <v>0.061</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="129">
         <v>0.13</v>
       </c>
     </row>
@@ -3239,231 +3727,231 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="129">
+        <v>38</v>
+      </c>
+      <c r="B24" s="130">
         <v>19.5</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="131">
         <v>33.8</v>
       </c>
-      <c r="D24" s="131">
+      <c r="D24" s="132">
         <v>72.8</v>
       </c>
-      <c r="E24" s="132">
+      <c r="E24" s="133">
         <v>210</v>
       </c>
-      <c r="G24" s="145">
+      <c r="G24" s="146">
         <v>336</v>
       </c>
-      <c r="H24" s="149">
+      <c r="H24" s="150">
         <v>657</v>
       </c>
-      <c r="I24" s="150">
+      <c r="I24" s="151">
         <v>0.511</v>
       </c>
-      <c r="J24" s="154">
+      <c r="J24" s="155">
         <v>0.018</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="159">
         <v>0.05</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="133">
+      <c r="B25" s="134">
         <v>12</v>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="135">
         <v>21.1</v>
       </c>
-      <c r="D25" s="135">
+      <c r="D25" s="136">
         <v>40.6</v>
       </c>
-      <c r="E25" s="136">
+      <c r="E25" s="137">
         <v>121</v>
       </c>
-      <c r="G25" s="146">
+      <c r="G25" s="147">
         <v>195</v>
       </c>
-      <c r="I25" s="151">
+      <c r="I25" s="152">
         <v>0.297</v>
       </c>
-      <c r="J25" s="155">
+      <c r="J25" s="156">
         <v>0.023</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="137">
+      <c r="B26" s="138">
         <v>5.57</v>
       </c>
-      <c r="C26" s="138">
+      <c r="C26" s="139">
         <v>10.6</v>
       </c>
-      <c r="D26" s="139">
+      <c r="D26" s="140">
         <v>21.1</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="141">
         <v>56.3</v>
       </c>
-      <c r="G26" s="147">
+      <c r="G26" s="148">
         <v>93.6</v>
       </c>
-      <c r="I26" s="152">
+      <c r="I26" s="153">
         <v>0.142</v>
       </c>
-      <c r="J26" s="156">
+      <c r="J26" s="157">
         <v>0.001</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="141">
+      <c r="B27" s="142">
         <v>1.83</v>
       </c>
-      <c r="C27" s="142">
+      <c r="C27" s="143">
         <v>3.34</v>
       </c>
-      <c r="D27" s="143">
+      <c r="D27" s="144">
         <v>7.2</v>
       </c>
-      <c r="E27" s="144">
+      <c r="E27" s="145">
         <v>19.5</v>
       </c>
-      <c r="G27" s="148">
+      <c r="G27" s="149">
         <v>31.9</v>
       </c>
-      <c r="I27" s="153">
+      <c r="I27" s="154">
         <v>0.0486</v>
       </c>
-      <c r="J27" s="157">
+      <c r="J27" s="158">
         <v>0.0033</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="158">
+        <v>42</v>
+      </c>
+      <c r="B29" s="160">
         <v>364</v>
       </c>
-      <c r="C29" s="159">
+      <c r="C29" s="161">
         <v>661</v>
       </c>
-      <c r="D29" s="160">
+      <c r="D29" s="162">
         <v>1350</v>
       </c>
-      <c r="E29" s="161">
+      <c r="E29" s="163">
         <v>3780</v>
       </c>
-      <c r="G29" s="174">
+      <c r="G29" s="176">
         <v>6160</v>
       </c>
-      <c r="H29" s="178">
+      <c r="H29" s="180">
         <v>12200</v>
       </c>
-      <c r="I29" s="179">
+      <c r="I29" s="181">
         <v>0.505</v>
       </c>
-      <c r="J29" s="183">
+      <c r="J29" s="185">
         <v>0.006</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="189">
         <v>0.01</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="162">
+      <c r="B30" s="164">
         <v>215</v>
       </c>
-      <c r="C30" s="163">
+      <c r="C30" s="165">
         <v>390</v>
       </c>
-      <c r="D30" s="164">
+      <c r="D30" s="166">
         <v>803</v>
       </c>
-      <c r="E30" s="165">
+      <c r="E30" s="167">
         <v>2250</v>
       </c>
-      <c r="G30" s="175">
+      <c r="G30" s="177">
         <v>3660</v>
       </c>
-      <c r="I30" s="180">
+      <c r="I30" s="182">
         <v>0.3</v>
       </c>
-      <c r="J30" s="184">
+      <c r="J30" s="186">
         <v>0.003</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="166">
+      <c r="B31" s="168">
         <v>105</v>
       </c>
-      <c r="C31" s="167">
+      <c r="C31" s="169">
         <v>190</v>
       </c>
-      <c r="D31" s="168">
+      <c r="D31" s="170">
         <v>390</v>
       </c>
-      <c r="E31" s="169">
+      <c r="E31" s="171">
         <v>1100</v>
       </c>
-      <c r="G31" s="176">
+      <c r="G31" s="178">
         <v>1790</v>
       </c>
-      <c r="I31" s="181">
+      <c r="I31" s="183">
         <v>0.147</v>
       </c>
-      <c r="J31" s="185">
+      <c r="J31" s="187">
         <v>0.005</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="170">
+      <c r="B32" s="172">
         <v>35.1</v>
       </c>
-      <c r="C32" s="171">
+      <c r="C32" s="173">
         <v>63.4</v>
       </c>
-      <c r="D32" s="172">
+      <c r="D32" s="174">
         <v>129</v>
       </c>
-      <c r="E32" s="173">
+      <c r="E32" s="175">
         <v>364</v>
       </c>
-      <c r="G32" s="177">
+      <c r="G32" s="179">
         <v>592</v>
       </c>
-      <c r="I32" s="182">
+      <c r="I32" s="184">
         <v>0.0485</v>
       </c>
-      <c r="J32" s="186">
+      <c r="J32" s="188">
         <v>0.0001</v>
       </c>
     </row>

--- a/out.xlsx
+++ b/out.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">l max</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9%</t>
+    <t xml:space="preserve">14.4%</t>
   </si>
   <si>
     <t xml:space="preserve">0.832</t>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t xml:space="preserve">k=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A^5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs(W5 - W4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k=5</t>
   </si>
 </sst>
 </file>
@@ -270,6 +282,36 @@
     <font>
       <b/>
     </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -668,6 +710,36 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -675,6 +747,216 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -2843,84 +3125,174 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="225" fillId="226" borderId="225" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="226" fillId="227" borderId="226" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="200" fillId="201" borderId="200" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="230" fillId="231" borderId="230" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="201" fillId="202" borderId="201" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="202" fillId="203" borderId="202" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="206" fillId="207" borderId="206" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="207" fillId="208" borderId="207" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="208" fillId="209" borderId="208" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="212" fillId="213" borderId="212" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="213" fillId="214" borderId="213" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="214" fillId="215" borderId="214" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="218" fillId="219" borderId="218" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="219" fillId="220" borderId="219" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="220" fillId="221" borderId="220" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf fontId="224" fillId="225" borderId="224" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="231" fillId="232" borderId="231" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="232" fillId="233" borderId="232" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="236" fillId="237" borderId="236" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="237" fillId="238" borderId="237" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="238" fillId="239" borderId="238" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="242" fillId="243" borderId="242" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="243" fillId="244" borderId="243" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="244" fillId="245" borderId="244" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="248" fillId="249" borderId="248" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="249" fillId="250" borderId="249" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="250" fillId="251" borderId="250" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf fontId="254" fillId="255" borderId="254" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3237,14 +3609,14 @@
       <c r="J1" t="s" s="64">
         <v>3</v>
       </c>
-      <c r="L1" s="197"/>
-      <c r="M1" t="s" s="198">
+      <c r="L1" s="227"/>
+      <c r="M1" t="s" s="228">
         <v>1</v>
       </c>
-      <c r="N1" t="s" s="199">
+      <c r="N1" t="s" s="229">
         <v>4</v>
       </c>
-      <c r="O1" t="s" s="200">
+      <c r="O1" t="s" s="230">
         <v>5</v>
       </c>
     </row>
@@ -3273,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="65"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="204"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="234"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
@@ -3287,34 +3659,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="24">
+        <v>0.333</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="38">
         <v>3</v>
       </c>
-      <c r="E3" s="31">
-        <v>3</v>
-      </c>
-      <c r="F3" s="38">
-        <v>7</v>
-      </c>
       <c r="G3" s="45">
-        <v>2.82</v>
+        <v>0.669</v>
       </c>
       <c r="H3" s="52">
-        <v>0.512</v>
+        <v>0.133</v>
       </c>
       <c r="I3" s="59">
-        <v>4.32</v>
+        <v>4.39</v>
       </c>
       <c r="J3" t="s" s="66">
         <v>13</v>
       </c>
-      <c r="L3" s="205"/>
-      <c r="M3" s="206">
-        <v>0.512</v>
-      </c>
-      <c r="N3" s="207">
-        <v>0.505</v>
-      </c>
-      <c r="O3" t="s" s="208">
+      <c r="L3" s="235"/>
+      <c r="M3" s="236">
+        <v>0.133</v>
+      </c>
+      <c r="N3" s="237">
+        <v>0.136</v>
+      </c>
+      <c r="O3" t="s" s="238">
         <v>14</v>
       </c>
     </row>
@@ -3324,22 +3696,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="18">
-        <v>0.333</v>
+        <v>3</v>
       </c>
       <c r="D4" s="25">
         <v>1</v>
       </c>
       <c r="E4" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="39">
         <v>5</v>
       </c>
       <c r="G4" s="46">
-        <v>1.61</v>
+        <v>2.59</v>
       </c>
       <c r="H4" s="53">
-        <v>0.292</v>
+        <v>0.514</v>
       </c>
       <c r="I4" t="s" s="60">
         <v>15</v>
@@ -3347,14 +3719,14 @@
       <c r="J4" t="s" s="67">
         <v>16</v>
       </c>
-      <c r="L4" s="209"/>
-      <c r="M4" s="210">
-        <v>0.292</v>
-      </c>
-      <c r="N4" s="211">
-        <v>0.3</v>
-      </c>
-      <c r="O4" t="s" s="212">
+      <c r="L4" s="239"/>
+      <c r="M4" s="240">
+        <v>0.514</v>
+      </c>
+      <c r="N4" s="241">
+        <v>0.489</v>
+      </c>
+      <c r="O4" t="s" s="242">
         <v>17</v>
       </c>
     </row>
@@ -3364,37 +3736,37 @@
         <v>9</v>
       </c>
       <c r="C5" s="19">
+        <v>5</v>
+      </c>
+      <c r="D5" s="26">
         <v>0.333</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0.25</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
       </c>
       <c r="F5" s="40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="47">
-        <v>0.803</v>
+        <v>1.35</v>
       </c>
       <c r="H5" s="54">
-        <v>0.146</v>
+        <v>0.268</v>
       </c>
       <c r="I5" s="61">
-        <v>0.107</v>
+        <v>0.13</v>
       </c>
       <c r="J5" s="68">
         <v>0.9</v>
       </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="214">
-        <v>0.146</v>
-      </c>
-      <c r="N5" s="215">
-        <v>0.147</v>
-      </c>
-      <c r="O5" t="s" s="216">
+      <c r="L5" s="243"/>
+      <c r="M5" s="244">
+        <v>0.268</v>
+      </c>
+      <c r="N5" s="245">
+        <v>0.292</v>
+      </c>
+      <c r="O5" t="s" s="246">
         <v>18</v>
       </c>
     </row>
@@ -3404,33 +3776,33 @@
         <v>10</v>
       </c>
       <c r="C6" s="20">
-        <v>0.143</v>
+        <v>0.333</v>
       </c>
       <c r="D6" s="27">
         <v>0.2</v>
       </c>
       <c r="E6" s="34">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="41">
         <v>1</v>
       </c>
       <c r="G6" s="48">
-        <v>0.275</v>
+        <v>0.427</v>
       </c>
       <c r="H6" s="55">
-        <v>0.0499</v>
+        <v>0.0848</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="69"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="218">
-        <v>0.0499</v>
-      </c>
-      <c r="N6" s="219">
-        <v>0.0485</v>
-      </c>
-      <c r="O6" t="s" s="220">
+      <c r="L6" s="247"/>
+      <c r="M6" s="248">
+        <v>0.0848</v>
+      </c>
+      <c r="N6" s="249">
+        <v>0.0833</v>
+      </c>
+      <c r="O6" t="s" s="250">
         <v>19</v>
       </c>
     </row>
@@ -3442,33 +3814,33 @@
         <v>21</v>
       </c>
       <c r="C7" s="21">
-        <v>1.81</v>
+        <v>9.33</v>
       </c>
       <c r="D7" s="28">
-        <v>4.45</v>
+        <v>1.87</v>
       </c>
       <c r="E7" s="35">
-        <v>8.2</v>
+        <v>4.7</v>
       </c>
       <c r="F7" s="42">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G7" s="49">
-        <v>5.51</v>
+        <v>5.04</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="63"/>
       <c r="J7" s="70"/>
-      <c r="L7" t="s" s="221">
+      <c r="L7" t="s" s="251">
         <v>12</v>
       </c>
-      <c r="M7" s="222">
-        <v>4.32</v>
-      </c>
-      <c r="N7" s="223">
-        <v>4.33</v>
-      </c>
-      <c r="O7" s="224">
+      <c r="M7" s="252">
+        <v>4.39</v>
+      </c>
+      <c r="N7" s="253">
+        <v>4.47</v>
+      </c>
+      <c r="O7" s="254">
         <v>4.32</v>
       </c>
     </row>
@@ -3494,10 +3866,10 @@
       <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" t="s" s="195">
+      <c r="J12" t="s" s="225">
         <v>25</v>
       </c>
-      <c r="K12" t="s" s="190">
+      <c r="K12" t="s" s="220">
         <v>26</v>
       </c>
     </row>
@@ -3508,11 +3880,11 @@
       <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="196">
-        <v>4.33</v>
-      </c>
-      <c r="K13" s="191">
-        <v>2.19</v>
+      <c r="J13" s="226">
+        <v>4.47</v>
+      </c>
+      <c r="K13" s="221">
+        <v>0.607</v>
       </c>
     </row>
     <row r="14">
@@ -3523,91 +3895,91 @@
         <v>1</v>
       </c>
       <c r="C14" s="76">
+        <v>0.333</v>
+      </c>
+      <c r="D14" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="78">
         <v>3</v>
       </c>
-      <c r="D14" s="77">
-        <v>3</v>
-      </c>
-      <c r="E14" s="78">
-        <v>7</v>
-      </c>
       <c r="G14" s="91">
-        <v>14</v>
+        <v>4.53</v>
       </c>
       <c r="H14" s="95">
-        <v>32.4</v>
+        <v>26.9</v>
       </c>
       <c r="I14" s="96">
-        <v>0.432</v>
-      </c>
-      <c r="K14" s="192">
-        <v>1.3</v>
+        <v>0.168</v>
+      </c>
+      <c r="K14" s="222">
+        <v>2.19</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="79">
-        <v>0.333</v>
+        <v>3</v>
       </c>
       <c r="C15" s="80">
         <v>1</v>
       </c>
       <c r="D15" s="81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="82">
         <v>5</v>
       </c>
       <c r="G15" s="92">
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="I15" s="97">
-        <v>0.318</v>
-      </c>
-      <c r="K15" s="193">
-        <v>0.633</v>
+        <v>0.446</v>
+      </c>
+      <c r="K15" s="223">
+        <v>1.3</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="83">
+        <v>5</v>
+      </c>
+      <c r="C16" s="84">
         <v>0.333</v>
-      </c>
-      <c r="C16" s="84">
-        <v>0.25</v>
       </c>
       <c r="D16" s="85">
         <v>1</v>
       </c>
       <c r="E16" s="86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16" s="93">
-        <v>6.58</v>
+        <v>8.33</v>
       </c>
       <c r="I16" s="98">
-        <v>0.203</v>
-      </c>
-      <c r="K16" s="194">
-        <v>0.21</v>
+        <v>0.31</v>
+      </c>
+      <c r="K16" s="224">
+        <v>0.372</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="87">
-        <v>0.143</v>
+        <v>0.333</v>
       </c>
       <c r="C17" s="88">
         <v>0.2</v>
       </c>
       <c r="D17" s="89">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="90">
         <v>1</v>
       </c>
       <c r="G17" s="94">
-        <v>1.54</v>
+        <v>2.03</v>
       </c>
       <c r="I17" s="99">
-        <v>0.0475</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="18">
@@ -3632,97 +4004,97 @@
         <v>4</v>
       </c>
       <c r="C19" s="101">
-        <v>8.15</v>
+        <v>1.33</v>
       </c>
       <c r="D19" s="102">
-        <v>19.4</v>
+        <v>2.9</v>
       </c>
       <c r="E19" s="103">
-        <v>44</v>
+        <v>8.07</v>
       </c>
       <c r="G19" s="116">
-        <v>75.5</v>
+        <v>16.3</v>
       </c>
       <c r="H19" s="120">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="I19" s="121">
-        <v>0.493</v>
+        <v>0.129</v>
       </c>
       <c r="J19" s="125">
-        <v>0.061</v>
+        <v>0.039</v>
       </c>
       <c r="K19" s="129">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="104">
-        <v>2.71</v>
+        <v>22.7</v>
       </c>
       <c r="C20" s="105">
         <v>4</v>
       </c>
       <c r="D20" s="106">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="E20" s="107">
-        <v>32.3</v>
+        <v>25</v>
       </c>
       <c r="G20" s="117">
-        <v>49</v>
+        <v>60.8</v>
       </c>
       <c r="I20" s="122">
-        <v>0.32</v>
+        <v>0.483</v>
       </c>
       <c r="J20" s="126">
-        <v>0.002</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="108">
-        <v>1.46</v>
+        <v>11.7</v>
       </c>
       <c r="C21" s="109">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="D21" s="110">
         <v>4</v>
       </c>
       <c r="E21" s="111">
-        <v>13.6</v>
+        <v>20.7</v>
       </c>
       <c r="G21" s="118">
-        <v>21.6</v>
+        <v>39.1</v>
       </c>
       <c r="I21" s="123">
-        <v>0.141</v>
+        <v>0.31</v>
       </c>
       <c r="J21" s="127">
-        <v>0.062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="112">
-        <v>0.419</v>
+        <v>3.77</v>
       </c>
       <c r="C22" s="113">
-        <v>0.879</v>
+        <v>0.677</v>
       </c>
       <c r="D22" s="114">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="E22" s="115">
         <v>4</v>
       </c>
       <c r="G22" s="119">
-        <v>6.93</v>
+        <v>10.1</v>
       </c>
       <c r="I22" s="124">
-        <v>0.0453</v>
+        <v>0.0802</v>
       </c>
       <c r="J22" s="128">
-        <v>0.0022</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="23">
@@ -3744,100 +4116,100 @@
         <v>38</v>
       </c>
       <c r="B24" s="130">
-        <v>19.5</v>
+        <v>25.2</v>
       </c>
       <c r="C24" s="131">
-        <v>33.8</v>
+        <v>5.24</v>
       </c>
       <c r="D24" s="132">
-        <v>72.8</v>
+        <v>11.7</v>
       </c>
       <c r="E24" s="133">
-        <v>210</v>
+        <v>32.5</v>
       </c>
       <c r="G24" s="146">
-        <v>336</v>
+        <v>74.6</v>
       </c>
       <c r="H24" s="150">
-        <v>657</v>
+        <v>560</v>
       </c>
       <c r="I24" s="151">
-        <v>0.511</v>
+        <v>0.133</v>
       </c>
       <c r="J24" s="155">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="K24" s="159">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="134">
-        <v>12</v>
+        <v>88.5</v>
       </c>
       <c r="C25" s="135">
-        <v>21.1</v>
+        <v>19.6</v>
       </c>
       <c r="D25" s="136">
-        <v>40.6</v>
+        <v>38.1</v>
       </c>
       <c r="E25" s="137">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G25" s="147">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="I25" s="152">
-        <v>0.297</v>
+        <v>0.495</v>
       </c>
       <c r="J25" s="156">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="138">
-        <v>5.57</v>
+        <v>46.8</v>
       </c>
       <c r="C26" s="139">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
       <c r="D26" s="140">
-        <v>21.1</v>
+        <v>24.9</v>
       </c>
       <c r="E26" s="141">
-        <v>56.3</v>
+        <v>77.4</v>
       </c>
       <c r="G26" s="148">
-        <v>93.6</v>
+        <v>161</v>
       </c>
       <c r="I26" s="153">
-        <v>0.142</v>
+        <v>0.287</v>
       </c>
       <c r="J26" s="157">
-        <v>0.001</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="142">
-        <v>1.83</v>
+        <v>15.5</v>
       </c>
       <c r="C27" s="143">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="D27" s="144">
-        <v>7.2</v>
+        <v>6.46</v>
       </c>
       <c r="E27" s="145">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="G27" s="149">
-        <v>31.9</v>
+        <v>47.3</v>
       </c>
       <c r="I27" s="154">
-        <v>0.0486</v>
+        <v>0.0845</v>
       </c>
       <c r="J27" s="158">
-        <v>0.0033</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="28">
@@ -3859,100 +4231,215 @@
         <v>42</v>
       </c>
       <c r="B29" s="160">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="C29" s="161">
-        <v>661</v>
+        <v>108</v>
       </c>
       <c r="D29" s="162">
-        <v>1350</v>
+        <v>222</v>
       </c>
       <c r="E29" s="163">
-        <v>3780</v>
+        <v>707</v>
       </c>
       <c r="G29" s="176">
-        <v>6160</v>
+        <v>1520</v>
       </c>
       <c r="H29" s="180">
-        <v>12200</v>
+        <v>11200</v>
       </c>
       <c r="I29" s="181">
-        <v>0.505</v>
+        <v>0.136</v>
       </c>
       <c r="J29" s="185">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="K29" s="189">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="164">
-        <v>215</v>
+        <v>1740</v>
       </c>
       <c r="C30" s="165">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="166">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E30" s="167">
-        <v>2250</v>
+        <v>2520</v>
       </c>
       <c r="G30" s="177">
-        <v>3660</v>
+        <v>5460</v>
       </c>
       <c r="I30" s="182">
-        <v>0.3</v>
+        <v>0.487</v>
       </c>
       <c r="J30" s="186">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="168">
-        <v>105</v>
+        <v>1040</v>
       </c>
       <c r="C31" s="169">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="D31" s="170">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="E31" s="171">
-        <v>1100</v>
+        <v>1510</v>
       </c>
       <c r="G31" s="178">
-        <v>1790</v>
+        <v>3260</v>
       </c>
       <c r="I31" s="183">
-        <v>0.147</v>
+        <v>0.291</v>
       </c>
       <c r="J31" s="187">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="172">
-        <v>35.1</v>
+        <v>295</v>
       </c>
       <c r="C32" s="173">
-        <v>63.4</v>
+        <v>66.3</v>
       </c>
       <c r="D32" s="174">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E32" s="175">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="G32" s="179">
-        <v>592</v>
+        <v>927</v>
       </c>
       <c r="I32" s="184">
-        <v>0.0485</v>
+        <v>0.0828</v>
       </c>
       <c r="J32" s="188">
-        <v>0.0001</v>
+        <v>0.0017</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="190">
+        <v>43000</v>
+      </c>
+      <c r="C34" s="191">
+        <v>9640</v>
+      </c>
+      <c r="D34" s="192">
+        <v>19800</v>
+      </c>
+      <c r="E34" s="193">
+        <v>62500</v>
+      </c>
+      <c r="G34" s="206">
+        <v>135000</v>
+      </c>
+      <c r="H34" s="210">
+        <v>994000</v>
+      </c>
+      <c r="I34" s="211">
+        <v>0.136</v>
+      </c>
+      <c r="J34" s="215">
+        <v>0</v>
+      </c>
+      <c r="K34" s="219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="194">
+        <v>155000</v>
+      </c>
+      <c r="C35" s="195">
+        <v>34800</v>
+      </c>
+      <c r="D35" s="196">
+        <v>71500</v>
+      </c>
+      <c r="E35" s="197">
+        <v>225000</v>
+      </c>
+      <c r="G35" s="207">
+        <v>486000</v>
+      </c>
+      <c r="I35" s="212">
+        <v>0.489</v>
+      </c>
+      <c r="J35" s="216">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="198">
+        <v>92300</v>
+      </c>
+      <c r="C36" s="199">
+        <v>20700</v>
+      </c>
+      <c r="D36" s="200">
+        <v>42600</v>
+      </c>
+      <c r="E36" s="201">
+        <v>134000</v>
+      </c>
+      <c r="G36" s="208">
+        <v>290000</v>
+      </c>
+      <c r="I36" s="213">
+        <v>0.292</v>
+      </c>
+      <c r="J36" s="217">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="202">
+        <v>26400</v>
+      </c>
+      <c r="C37" s="203">
+        <v>5910</v>
+      </c>
+      <c r="D37" s="204">
+        <v>12200</v>
+      </c>
+      <c r="E37" s="205">
+        <v>38300</v>
+      </c>
+      <c r="G37" s="209">
+        <v>82800</v>
+      </c>
+      <c r="I37" s="214">
+        <v>0.0833</v>
+      </c>
+      <c r="J37" s="218">
+        <v>0.0005</v>
       </c>
     </row>
   </sheetData>
